--- a/data/データ分析(損失原因)_4_26.xlsx
+++ b/data/データ分析(損失原因)_4_26.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\ns3.30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE60CF-E40F-449F-B177-780DCEEA2093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0AF1EC-2071-4D96-BBE0-1A270B7B0457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1757" yWindow="2014" windowWidth="12343" windowHeight="6395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1"/>
@@ -66,10 +67,6 @@
     <rPh sb="9" eb="10">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SUM</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -414,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -439,7 +436,7 @@
         <v>500</v>
       </c>
       <c r="O1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:15">
@@ -477,13 +474,22 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:15">
       <c r="B3">
         <v>10000</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>2</v>
       </c>
@@ -510,6 +516,15 @@
       <c r="B4">
         <v>20000</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -536,6 +551,24 @@
       <c r="B5">
         <v>30000</v>
       </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="I5">
         <v>2</v>
       </c>
@@ -553,6 +586,24 @@
       <c r="B6">
         <v>40000</v>
       </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
@@ -570,6 +621,15 @@
       <c r="B7">
         <v>50000</v>
       </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
@@ -587,6 +647,15 @@
       <c r="B8">
         <v>60000</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -604,6 +673,15 @@
       <c r="B9">
         <v>70000</v>
       </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
@@ -621,6 +699,15 @@
       <c r="B10">
         <v>80000</v>
       </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>2</v>
       </c>
@@ -638,6 +725,15 @@
       <c r="B11">
         <v>90000</v>
       </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="I11">
         <v>1</v>
       </c>
@@ -655,6 +751,15 @@
       <c r="B12">
         <v>11000</v>
       </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12">
         <v>1</v>
       </c>
@@ -672,6 +777,15 @@
       <c r="B13">
         <v>22000</v>
       </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
       <c r="I13">
         <v>1</v>
       </c>
@@ -689,6 +803,15 @@
       <c r="B14">
         <v>33000</v>
       </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
       <c r="I14">
         <v>2</v>
       </c>
@@ -706,6 +829,15 @@
       <c r="B15">
         <v>44000</v>
       </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="I15">
         <v>4</v>
       </c>
@@ -723,6 +855,15 @@
       <c r="B16">
         <v>55000</v>
       </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16">
         <v>1</v>
       </c>
@@ -740,6 +881,15 @@
       <c r="B17">
         <v>66000</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
       <c r="I17">
         <v>1</v>
       </c>
@@ -757,6 +907,15 @@
       <c r="B18">
         <v>77000</v>
       </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>1</v>
       </c>
@@ -774,6 +933,15 @@
       <c r="B19">
         <v>88000</v>
       </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19">
         <v>1</v>
       </c>
@@ -791,6 +959,15 @@
       <c r="B20">
         <v>99000</v>
       </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20">
         <v>3</v>
       </c>
@@ -808,6 +985,15 @@
       <c r="B21">
         <v>11100</v>
       </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21">
         <v>1</v>
       </c>
@@ -825,6 +1011,15 @@
       <c r="B22">
         <v>22200</v>
       </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
       <c r="I22">
         <v>2</v>
       </c>
@@ -842,6 +1037,15 @@
       <c r="B23">
         <v>33300</v>
       </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
       <c r="I23">
         <v>1</v>
       </c>
@@ -859,6 +1063,15 @@
       <c r="B24">
         <v>44400</v>
       </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
       <c r="I24">
         <v>2</v>
       </c>
@@ -876,6 +1089,15 @@
       <c r="B25">
         <v>55500</v>
       </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25">
         <v>2</v>
       </c>
@@ -893,6 +1115,15 @@
       <c r="B26">
         <v>66600</v>
       </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="I26">
         <v>2</v>
       </c>
@@ -910,6 +1141,15 @@
       <c r="B27">
         <v>77700</v>
       </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
       <c r="I27">
         <v>1</v>
       </c>
@@ -927,6 +1167,15 @@
       <c r="B28">
         <v>88800</v>
       </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="I28">
         <v>1</v>
       </c>
@@ -944,6 +1193,15 @@
       <c r="B29">
         <v>99900</v>
       </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
       <c r="I29">
         <v>3</v>
       </c>
@@ -961,6 +1219,15 @@
       <c r="B30">
         <v>11110</v>
       </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
       <c r="I30">
         <v>1</v>
       </c>
@@ -978,6 +1245,15 @@
       <c r="B31">
         <v>22220</v>
       </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31">
         <v>1</v>
       </c>
@@ -995,6 +1271,15 @@
       <c r="B32">
         <v>33330</v>
       </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
       <c r="I32">
         <v>1</v>
       </c>
@@ -1012,6 +1297,15 @@
       <c r="B33">
         <v>44440</v>
       </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="I33">
         <v>1</v>
       </c>
@@ -1029,6 +1323,15 @@
       <c r="B34">
         <v>55550</v>
       </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
       <c r="I34">
         <v>0</v>
       </c>
@@ -1046,6 +1349,15 @@
       <c r="B35">
         <v>66660</v>
       </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="I35">
         <v>0</v>
       </c>
@@ -1063,6 +1375,15 @@
       <c r="B36">
         <v>77770</v>
       </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
       <c r="I36">
         <v>4</v>
       </c>
@@ -1080,6 +1401,15 @@
       <c r="B37">
         <v>88880</v>
       </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
       <c r="I37">
         <v>2</v>
       </c>
@@ -1094,15 +1424,24 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" t="s">
-        <v>4</v>
+      <c r="F38">
+        <f t="shared" ref="F38:K38" si="0">SUM(F3:F37)</f>
+        <v>91</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="I38">
-        <f>SUM(I3:I37)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:K38" si="0">SUM(J3:J37)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="K38">

--- a/data/データ分析(損失原因)_4_26.xlsx
+++ b/data/データ分析(損失原因)_4_26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\ns3.30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0AF1EC-2071-4D96-BBE0-1A270B7B0457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33D9EB-D680-43D5-9C93-A851F412F391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1"/>
@@ -86,6 +85,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>500node</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意図した損失でsigoでは届いた数</t>
+    <rPh sb="0" eb="2">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソンシツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -127,8 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -409,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O38"/>
+  <dimension ref="B1:Y70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
@@ -423,9 +445,14 @@
     <col min="8" max="8" width="16.35546875" customWidth="1"/>
     <col min="10" max="10" width="15.35546875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="30.7109375" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="16.640625" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:22">
       <c r="C1">
         <v>300</v>
       </c>
@@ -438,8 +465,11 @@
       <c r="O1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:15">
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -476,8 +506,17 @@
       <c r="O2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
       <c r="B3">
         <v>10000</v>
       </c>
@@ -511,8 +550,11 @@
       <c r="L3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="2:15">
+      <c r="V3" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
       <c r="B4">
         <v>20000</v>
       </c>
@@ -546,8 +588,11 @@
       <c r="L4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="2:15">
+      <c r="V4" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5">
         <v>30000</v>
       </c>
@@ -581,8 +626,11 @@
       <c r="L5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="6" spans="2:15">
+      <c r="V5" s="1">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
       <c r="B6">
         <v>40000</v>
       </c>
@@ -616,8 +664,11 @@
       <c r="L6">
         <v>40000</v>
       </c>
-    </row>
-    <row r="7" spans="2:15">
+      <c r="V6" s="1">
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
       <c r="B7">
         <v>50000</v>
       </c>
@@ -642,8 +693,11 @@
       <c r="L7">
         <v>50000</v>
       </c>
-    </row>
-    <row r="8" spans="2:15">
+      <c r="V7" s="1">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
       <c r="B8">
         <v>60000</v>
       </c>
@@ -668,8 +722,11 @@
       <c r="L8">
         <v>60000</v>
       </c>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="V8" s="1">
+        <v>11112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
       <c r="B9">
         <v>70000</v>
       </c>
@@ -694,8 +751,11 @@
       <c r="L9">
         <v>70000</v>
       </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="V9" s="1">
+        <v>11113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
       <c r="B10">
         <v>80000</v>
       </c>
@@ -720,8 +780,11 @@
       <c r="L10">
         <v>80000</v>
       </c>
-    </row>
-    <row r="11" spans="2:15">
+      <c r="V10" s="1">
+        <v>11114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
       <c r="B11">
         <v>90000</v>
       </c>
@@ -746,8 +809,11 @@
       <c r="L11">
         <v>90000</v>
       </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="V11" s="1">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
       <c r="B12">
         <v>11000</v>
       </c>
@@ -772,8 +838,11 @@
       <c r="L12">
         <v>11000</v>
       </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="V12" s="1">
+        <v>11116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
       <c r="B13">
         <v>22000</v>
       </c>
@@ -798,8 +867,11 @@
       <c r="L13">
         <v>22000</v>
       </c>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="V13" s="1">
+        <v>11117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
       <c r="B14">
         <v>33000</v>
       </c>
@@ -824,8 +896,11 @@
       <c r="L14">
         <v>33000</v>
       </c>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="V14" s="1">
+        <v>11118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
       <c r="B15">
         <v>44000</v>
       </c>
@@ -850,8 +925,11 @@
       <c r="L15">
         <v>44000</v>
       </c>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="V15" s="1">
+        <v>11119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
       <c r="B16">
         <v>55000</v>
       </c>
@@ -876,8 +954,11 @@
       <c r="L16">
         <v>55000</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="V16" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
       <c r="B17">
         <v>66000</v>
       </c>
@@ -902,8 +983,11 @@
       <c r="L17">
         <v>66000</v>
       </c>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="V17" s="1">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
       <c r="B18">
         <v>77000</v>
       </c>
@@ -928,8 +1012,11 @@
       <c r="L18">
         <v>77000</v>
       </c>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="V18" s="1">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
       <c r="B19">
         <v>88000</v>
       </c>
@@ -954,8 +1041,11 @@
       <c r="L19">
         <v>88000</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="V19" s="1">
+        <v>22220</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
       <c r="B20">
         <v>99000</v>
       </c>
@@ -980,8 +1070,11 @@
       <c r="L20">
         <v>99000</v>
       </c>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="V20" s="1">
+        <v>22221</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21">
         <v>11100</v>
       </c>
@@ -1006,8 +1099,11 @@
       <c r="L21">
         <v>11100</v>
       </c>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="V21" s="1">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22">
         <v>22200</v>
       </c>
@@ -1032,8 +1128,11 @@
       <c r="L22">
         <v>22200</v>
       </c>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="V22" s="1">
+        <v>22223</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23">
         <v>33300</v>
       </c>
@@ -1058,8 +1157,11 @@
       <c r="L23">
         <v>33300</v>
       </c>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="V23" s="1">
+        <v>22224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24">
         <v>44400</v>
       </c>
@@ -1084,8 +1186,11 @@
       <c r="L24">
         <v>44400</v>
       </c>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="V24" s="1">
+        <v>22225</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
       <c r="B25">
         <v>55500</v>
       </c>
@@ -1110,8 +1215,11 @@
       <c r="L25">
         <v>55500</v>
       </c>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="V25" s="1">
+        <v>22226</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26">
         <v>66600</v>
       </c>
@@ -1136,8 +1244,11 @@
       <c r="L26">
         <v>66600</v>
       </c>
-    </row>
-    <row r="27" spans="2:12">
+      <c r="V26" s="1">
+        <v>22227</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27">
         <v>77700</v>
       </c>
@@ -1162,8 +1273,11 @@
       <c r="L27">
         <v>77700</v>
       </c>
-    </row>
-    <row r="28" spans="2:12">
+      <c r="V27" s="1">
+        <v>22228</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
       <c r="B28">
         <v>88800</v>
       </c>
@@ -1188,8 +1302,11 @@
       <c r="L28">
         <v>88800</v>
       </c>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="V28" s="1">
+        <v>22229</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
       <c r="B29">
         <v>99900</v>
       </c>
@@ -1214,8 +1331,11 @@
       <c r="L29">
         <v>99900</v>
       </c>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="V29" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
       <c r="B30">
         <v>11110</v>
       </c>
@@ -1240,8 +1360,11 @@
       <c r="L30">
         <v>11110</v>
       </c>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="V30" s="1">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
       <c r="B31">
         <v>22220</v>
       </c>
@@ -1266,8 +1389,11 @@
       <c r="L31">
         <v>22220</v>
       </c>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="V31" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
       <c r="B32">
         <v>33330</v>
       </c>
@@ -1292,8 +1418,11 @@
       <c r="L32">
         <v>33330</v>
       </c>
-    </row>
-    <row r="33" spans="2:12">
+      <c r="V32" s="1">
+        <v>33330</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
       <c r="B33">
         <v>44440</v>
       </c>
@@ -1318,8 +1447,11 @@
       <c r="L33">
         <v>44440</v>
       </c>
-    </row>
-    <row r="34" spans="2:12">
+      <c r="V33" s="1">
+        <v>33331</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
       <c r="B34">
         <v>55550</v>
       </c>
@@ -1344,8 +1476,11 @@
       <c r="L34">
         <v>55550</v>
       </c>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="V34" s="1">
+        <v>33332</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
       <c r="B35">
         <v>66660</v>
       </c>
@@ -1370,8 +1505,11 @@
       <c r="L35">
         <v>66660</v>
       </c>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="V35" s="1">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
       <c r="B36">
         <v>77770</v>
       </c>
@@ -1396,8 +1534,11 @@
       <c r="L36">
         <v>77770</v>
       </c>
-    </row>
-    <row r="37" spans="2:12">
+      <c r="V36" s="1">
+        <v>33334</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37">
         <v>88880</v>
       </c>
@@ -1422,8 +1563,11 @@
       <c r="L37">
         <v>88880</v>
       </c>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="V37" s="1">
+        <v>33335</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
       <c r="F38">
         <f t="shared" ref="F38:K38" si="0">SUM(F3:F37)</f>
         <v>91</v>
@@ -1447,6 +1591,169 @@
       <c r="K38">
         <f t="shared" si="0"/>
         <v>25</v>
+      </c>
+      <c r="V38" s="1">
+        <v>33336</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="V39" s="1">
+        <v>33337</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="V40" s="1">
+        <v>33338</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="V41" s="1">
+        <v>33339</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="V42" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="V43" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="V44" s="1">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="V45" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="V46" s="1">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="V47" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="V48" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="49" spans="22:22">
+      <c r="V49" s="1">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="50" spans="22:22">
+      <c r="V50" s="1">
+        <v>55550</v>
+      </c>
+    </row>
+    <row r="51" spans="22:22">
+      <c r="V51" s="1">
+        <v>55555</v>
+      </c>
+    </row>
+    <row r="52" spans="22:22">
+      <c r="V52" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="53" spans="22:22">
+      <c r="V53" s="1">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="54" spans="22:22">
+      <c r="V54" s="1">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="55" spans="22:22">
+      <c r="V55" s="1">
+        <v>66660</v>
+      </c>
+    </row>
+    <row r="56" spans="22:22">
+      <c r="V56" s="1">
+        <v>66666</v>
+      </c>
+    </row>
+    <row r="57" spans="22:22">
+      <c r="V57" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="58" spans="22:22">
+      <c r="V58" s="1">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="59" spans="22:22">
+      <c r="V59" s="1">
+        <v>77700</v>
+      </c>
+    </row>
+    <row r="60" spans="22:22">
+      <c r="V60" s="1">
+        <v>77770</v>
+      </c>
+    </row>
+    <row r="61" spans="22:22">
+      <c r="V61" s="1">
+        <v>77777</v>
+      </c>
+    </row>
+    <row r="62" spans="22:22">
+      <c r="V62" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="63" spans="22:22">
+      <c r="V63" s="1">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="64" spans="22:22">
+      <c r="V64" s="1">
+        <v>88800</v>
+      </c>
+    </row>
+    <row r="65" spans="22:22">
+      <c r="V65" s="1">
+        <v>88880</v>
+      </c>
+    </row>
+    <row r="66" spans="22:22">
+      <c r="V66" s="1">
+        <v>88888</v>
+      </c>
+    </row>
+    <row r="67" spans="22:22">
+      <c r="V67" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="68" spans="22:22">
+      <c r="V68" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="69" spans="22:22">
+      <c r="V69" s="1">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="70" spans="22:22">
+      <c r="V70" s="1">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
